--- a/datasets/raw/H0001_features.xlsx
+++ b/datasets/raw/H0001_features.xlsx
@@ -798,7 +798,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -926,7 +926,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG2" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG3" t="n">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG4" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG5" t="n">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG6" t="n">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG7" t="n">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG8" t="n">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG9" t="n">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG10" t="n">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG11" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG12" t="n">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG13" t="n">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG14" t="n">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG15" t="n">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG16" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG17" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG18" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG19" t="n">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG20" t="n">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG21" t="n">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG22" t="n">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG23" t="n">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG24" t="n">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG25" t="n">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG26" t="n">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG27" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG28" t="n">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG29" t="n">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -6360,7 +6360,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG30" t="n">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG31" t="n">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="BF32" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG32" t="n">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BF33" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG33" t="n">
@@ -7006,7 +7006,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="BF34" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG34" t="n">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="BF35" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG35" t="n">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="BF36" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG36" t="n">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="BF37" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG37" t="n">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="BF38" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG38" t="n">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="BF39" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG39" t="n">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="BF40" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG40" t="n">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="BF41" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG41" t="n">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="BF42" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG42" t="n">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="BF43" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG43" t="n">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="BF44" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG44" t="n">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="BF45" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG45" t="n">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="BF46" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG46" t="n">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BF47" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG47" t="n">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="BF48" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG48" t="n">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="BF49" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG49" t="n">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="BF50" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG50" t="n">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="BF51" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG51" t="n">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="BF52" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG52" t="n">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="BF53" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG53" t="n">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="BF54" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG54" t="n">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -11215,7 +11215,7 @@
       </c>
       <c r="BF55" t="inlineStr">
         <is>
-          <t>../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
+          <t>../../data/raw/HeartANDLung_Sounds_Dataset/Mix/Mix/H0001.wav</t>
         </is>
       </c>
       <c r="BG55" t="n">
